--- a/HNY_Emails.xlsx
+++ b/HNY_Emails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sources\DocMaker\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF79F0D-D050-4C12-A425-05C0538299E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E856CF7-6281-4088-9C34-B15B5A7BB84E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38370" yWindow="5820" windowWidth="14685" windowHeight="8070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="2520" windowWidth="22890" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HNY_2021" sheetId="1" r:id="rId1"/>
@@ -25,29 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
   <si>
     <t>VOUS/TU</t>
   </si>
   <si>
-    <t>ELLE/IL</t>
-  </si>
-  <si>
-    <t>PERSO_LEVEL</t>
-  </si>
-  <si>
-    <t>sha</t>
-  </si>
-  <si>
-    <t>shasha</t>
-  </si>
-  <si>
     <t>shalev@vayness.com</t>
   </si>
   <si>
@@ -60,20 +42,152 @@
     <t>T</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>shashasha</t>
+    <t>SENT</t>
+  </si>
+  <si>
+    <t>RETOUR</t>
+  </si>
+  <si>
+    <t>TYPE</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Chère Shasha</t>
+  </si>
+  <si>
+    <t>Cher Sha</t>
+  </si>
+  <si>
+    <t>Chères Shasha, Cher Sha</t>
+  </si>
+  <si>
+    <t>shalev.vayness.mobile@outlook.com , shalev@vayness.com</t>
+  </si>
+  <si>
+    <t>SINGLE/PLU</t>
+  </si>
+  <si>
+    <t>AJOUT</t>
+  </si>
+  <si>
+    <t>SALUT</t>
+  </si>
+  <si>
+    <t>EMAILS</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>shalev.vayness.mobile@outlook.com,shalev@vayness.com ,shalev1@vayness.com;shalev2@vayness.com ; shalev3@vayness.com</t>
+  </si>
+  <si>
+    <t>XXX</t>
+  </si>
+  <si>
+    <t>_RIEN</t>
+  </si>
+  <si>
+    <t>_COMMENT</t>
+  </si>
+  <si>
+    <t>J'espère que vous allez bien.</t>
+  </si>
+  <si>
+    <t>J'espère que tu vas bien.</t>
+  </si>
+  <si>
+    <t>INFOS</t>
+  </si>
+  <si>
+    <t>Luc bellier</t>
+  </si>
+  <si>
+    <t>Mme TAM</t>
+  </si>
+  <si>
+    <t>4 axes ?</t>
+  </si>
+  <si>
+    <t>Chantal Nicolas</t>
+  </si>
+  <si>
+    <t>Chère Véronique, Cher Julien,</t>
+  </si>
+  <si>
+    <t>veroniquebedin.feydy@gmail.com</t>
+  </si>
+  <si>
+    <t>fabien.weyh@gmail.com</t>
+  </si>
+  <si>
+    <t>Cher Fabien,</t>
+  </si>
+  <si>
+    <t>Amitiés,</t>
+  </si>
+  <si>
+    <t>parisot.eric.mail@gmail.com</t>
+  </si>
+  <si>
+    <t>Cher Eric,</t>
+  </si>
+  <si>
+    <t>addinquy@gmail.com</t>
+  </si>
+  <si>
+    <t>Cher Christophe,</t>
+  </si>
+  <si>
+    <t>Cher Monsieur Apolinario,</t>
+  </si>
+  <si>
+    <t>s.apolinario@financial-ac.fr</t>
+  </si>
+  <si>
+    <t>Bien à vous,</t>
+  </si>
+  <si>
+    <t>Cher Vincent,</t>
+  </si>
+  <si>
+    <t>vincentpiccolo@artbookmagazine.com</t>
+  </si>
+  <si>
+    <t>Marie-Paule comps</t>
+  </si>
+  <si>
+    <t>Mme Chellabi</t>
+  </si>
+  <si>
+    <t>SIGNATURE</t>
+  </si>
+  <si>
+    <t>_BIEN</t>
+  </si>
+  <si>
+    <t>Amicalement</t>
+  </si>
+  <si>
+    <t>_NONE</t>
+  </si>
+  <si>
+    <t>DONT-SEND</t>
+  </si>
+  <si>
+    <t>Cher Sha,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +207,29 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,15 +256,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -410,94 +566,342 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="5" width="14.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14" style="3" customWidth="1"/>
+    <col min="5" max="8" width="14.7109375" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="G4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="G6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="E19" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F4DD5A5B-4E53-4CDB-850A-ED79DE74F5C4}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{79CCD5ED-C152-4432-A80C-D262955880C2}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{B7668638-575D-4AB2-B917-76C76B3D39C0}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{F4DD5A5B-4E53-4CDB-850A-ED79DE74F5C4}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{79CCD5ED-C152-4432-A80C-D262955880C2}"/>
+    <hyperlink ref="C5" r:id="rId3" display="shalev.vayness.mobile@outlook.com" xr:uid="{1F052783-37E0-4EE6-A3B8-87FC7860C23F}"/>
+    <hyperlink ref="C4" r:id="rId4" display="shalev.vayness.mobile@outlook.com" xr:uid="{A3AF96F3-05EB-4FDF-8CF3-5FCCD8F43651}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{9B8135AB-DF6F-47FD-BA04-3EBA11272DAE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
--- a/HNY_Emails.xlsx
+++ b/HNY_Emails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sources\DocMaker\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E856CF7-6281-4088-9C34-B15B5A7BB84E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB0BAB-19E8-4334-BB56-11C8EB33EB8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="2520" windowWidth="22890" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="3300" windowWidth="22890" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HNY_2021" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
   <si>
     <t>VOUS/TU</t>
   </si>
@@ -171,9 +171,6 @@
     <t>_BIEN</t>
   </si>
   <si>
-    <t>Amicalement</t>
-  </si>
-  <si>
     <t>_NONE</t>
   </si>
   <si>
@@ -181,6 +178,15 @@
   </si>
   <si>
     <t>Cher Sha,</t>
+  </si>
+  <si>
+    <t>Amicalement,</t>
+  </si>
+  <si>
+    <t>_JESPERE</t>
+  </si>
+  <si>
+    <t>Sans virgule</t>
   </si>
 </sst>
 </file>
@@ -569,7 +575,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,7 +617,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -622,7 +628,7 @@
     </row>
     <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -634,7 +640,7 @@
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>47</v>
@@ -703,10 +709,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>18</v>
@@ -726,12 +732,35 @@
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -900,8 +929,9 @@
     <hyperlink ref="C5" r:id="rId3" display="shalev.vayness.mobile@outlook.com" xr:uid="{1F052783-37E0-4EE6-A3B8-87FC7860C23F}"/>
     <hyperlink ref="C4" r:id="rId4" display="shalev.vayness.mobile@outlook.com" xr:uid="{A3AF96F3-05EB-4FDF-8CF3-5FCCD8F43651}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{9B8135AB-DF6F-47FD-BA04-3EBA11272DAE}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{A7B4D229-8366-4B8B-9F53-84BB2508209A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
 </worksheet>
 </file>
--- a/HNY_Emails.xlsx
+++ b/HNY_Emails.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sources\DocMaker\sources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09CB0BAB-19E8-4334-BB56-11C8EB33EB8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F25BFEF-6381-489F-8778-FAFDAC0ECA58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="3300" windowWidth="22890" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30015" yWindow="3075" windowWidth="23160" windowHeight="13785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HNY_2021" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="153">
   <si>
     <t>VOUS/TU</t>
   </si>
@@ -87,18 +87,9 @@
     <t>shalev.vayness.mobile@outlook.com,shalev@vayness.com ,shalev1@vayness.com;shalev2@vayness.com ; shalev3@vayness.com</t>
   </si>
   <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>_RIEN</t>
-  </si>
-  <si>
     <t>_COMMENT</t>
   </si>
   <si>
-    <t>J'espère que vous allez bien.</t>
-  </si>
-  <si>
     <t>J'espère que tu vas bien.</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>s.apolinario@financial-ac.fr</t>
   </si>
   <si>
-    <t>Bien à vous,</t>
-  </si>
-  <si>
     <t>Cher Vincent,</t>
   </si>
   <si>
@@ -177,9 +165,6 @@
     <t>DONT-SEND</t>
   </si>
   <si>
-    <t>Cher Sha,</t>
-  </si>
-  <si>
     <t>Amicalement,</t>
   </si>
   <si>
@@ -187,6 +172,318 @@
   </si>
   <si>
     <t>Sans virgule</t>
+  </si>
+  <si>
+    <t>Cher Shalev</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>fsouillot@flammarion.fr</t>
+  </si>
+  <si>
+    <t>Cher Florent,</t>
+  </si>
+  <si>
+    <t>bkbonjean@gmail.com</t>
+  </si>
+  <si>
+    <t>Cher Bernard,</t>
+  </si>
+  <si>
+    <t>laurent.benamou@gmail.com</t>
+  </si>
+  <si>
+    <t>Cher Laurent,</t>
+  </si>
+  <si>
+    <t>eve.paul@free.fr</t>
+  </si>
+  <si>
+    <t>Chère Eve,</t>
+  </si>
+  <si>
+    <t>laurent.desideri@allezzoulagence.com</t>
+  </si>
+  <si>
+    <t>Chère Laurence,</t>
+  </si>
+  <si>
+    <t>LZAYSSER@sejer.fr</t>
+  </si>
+  <si>
+    <t>denis.guedez@free.fr</t>
+  </si>
+  <si>
+    <t>Cher Denis,</t>
+  </si>
+  <si>
+    <t>a.fouquet@lefebvre-sarrut.eu</t>
+  </si>
+  <si>
+    <t>Chère Agnès,</t>
+  </si>
+  <si>
+    <t>dgpao55@gmail.com</t>
+  </si>
+  <si>
+    <t>Cher Dominique,</t>
+  </si>
+  <si>
+    <t>guezetchantal@gmail.com</t>
+  </si>
+  <si>
+    <t>Chère Chantal,</t>
+  </si>
+  <si>
+    <t>m.bontejoseph@me.com</t>
+  </si>
+  <si>
+    <t>Chère Mathilde,</t>
+  </si>
+  <si>
+    <t>g.chomel@gmail.com</t>
+  </si>
+  <si>
+    <t>Cher Gautier,</t>
+  </si>
+  <si>
+    <t>jerome.dayre@dernieremarge.fr</t>
+  </si>
+  <si>
+    <t>Cher Jérôme,</t>
+  </si>
+  <si>
+    <t>serge.kilimoff@cairn.info</t>
+  </si>
+  <si>
+    <t>Cher Serge,</t>
+  </si>
+  <si>
+    <t>olivier.garre@bnf.fr</t>
+  </si>
+  <si>
+    <t>Cher Olivier,</t>
+  </si>
+  <si>
+    <t>contact@librairieparoles.com</t>
+  </si>
+  <si>
+    <t>Chère Marie-Eve,</t>
+  </si>
+  <si>
+    <t>J'espère que toute la famille des liseuses va bien.</t>
+  </si>
+  <si>
+    <t>s.pigatto@efl.fr</t>
+  </si>
+  <si>
+    <t>Cher Sylvain,</t>
+  </si>
+  <si>
+    <t>cmofidi@rakuten.com'</t>
+  </si>
+  <si>
+    <t>Chère Camille,</t>
+  </si>
+  <si>
+    <t>mobidys</t>
+  </si>
+  <si>
+    <t>gregory@le-tripode.net</t>
+  </si>
+  <si>
+    <t>Cher Grégory,</t>
+  </si>
+  <si>
+    <t>Chère Sarah,</t>
+  </si>
+  <si>
+    <t>sarah.loutar@financial-ac.fr</t>
+  </si>
+  <si>
+    <t>SENDER</t>
+  </si>
+  <si>
+    <t>05/01/2021  (round 1)</t>
+  </si>
+  <si>
+    <t>Shalev Vayness</t>
+  </si>
+  <si>
+    <t>Shalev Vayness (Isako)</t>
+  </si>
+  <si>
+    <t>pTytgat@nordsoft.fr</t>
+  </si>
+  <si>
+    <t>Cher Patrick,</t>
+  </si>
+  <si>
+    <t>jeanluclemaire@abm-studio.com</t>
+  </si>
+  <si>
+    <t>Cher Jean-Luc,</t>
+  </si>
+  <si>
+    <t>Cher Monsieur Zins,</t>
+  </si>
+  <si>
+    <t>pierre-zins@wanadoo.fr</t>
+  </si>
+  <si>
+    <t>Chers Arlène et Laurent,</t>
+  </si>
+  <si>
+    <t>israellj@aol.com</t>
+  </si>
+  <si>
+    <t>Colette &amp; Shalev</t>
+  </si>
+  <si>
+    <t>nicolas.etienne@arbre-vengeur.fr</t>
+  </si>
+  <si>
+    <t>Cher Nicolas,</t>
+  </si>
+  <si>
+    <t>Chère Cyrielle,</t>
+  </si>
+  <si>
+    <t>c.perrin@actes-sud.fr</t>
+  </si>
+  <si>
+    <t>c.fatou@actes-sud.fr</t>
+  </si>
+  <si>
+    <t>Chère Cathy,</t>
+  </si>
+  <si>
+    <t>Chère Pauline,</t>
+  </si>
+  <si>
+    <t>VLEVYSOUSSAN@hachette-livre.fr</t>
+  </si>
+  <si>
+    <t>Chère Madame Lévy-Soussan,</t>
+  </si>
+  <si>
+    <t>claire.raffray@ademe.fr</t>
+  </si>
+  <si>
+    <t>Chère Claire</t>
+  </si>
+  <si>
+    <t>caroline.dandurand@inra.fr</t>
+  </si>
+  <si>
+    <t>Chère Caroline,</t>
+  </si>
+  <si>
+    <t>guillaume.perraud@inra.fr</t>
+  </si>
+  <si>
+    <t>Cher Guillaume,</t>
+  </si>
+  <si>
+    <t>arthur.cohen@editions-hermann.fr</t>
+  </si>
+  <si>
+    <t>Cher Monsieur Cohen,</t>
+  </si>
+  <si>
+    <t>yasmine.latch@cadres.cfdt.fr</t>
+  </si>
+  <si>
+    <t>Chère Yasmine,</t>
+  </si>
+  <si>
+    <t>Cher Charles,</t>
+  </si>
+  <si>
+    <t>Charles.Boitier@edi8.fr</t>
+  </si>
+  <si>
+    <t>isabelle.dupasquier@beauxartsparis.fr</t>
+  </si>
+  <si>
+    <t>Chère Isabelle,</t>
+  </si>
+  <si>
+    <t>Chartes</t>
+  </si>
+  <si>
+    <t>g.bourjeois@les-treilles.com</t>
+  </si>
+  <si>
+    <t>danielcollet@nnx.com</t>
+  </si>
+  <si>
+    <t>Cher Daniel,</t>
+  </si>
+  <si>
+    <t>p.capitani@actes-sud.fr</t>
+  </si>
+  <si>
+    <t>berthoux@ined.fr</t>
+  </si>
+  <si>
+    <t>Chère Nicole,</t>
+  </si>
+  <si>
+    <t>j.gautier@actes-sud.fr</t>
+  </si>
+  <si>
+    <t>Chère Julie,</t>
+  </si>
+  <si>
+    <t>Amelie qui est partie</t>
+  </si>
+  <si>
+    <t>Lucie qui est partie</t>
+  </si>
+  <si>
+    <t>martine.rousso-rossmann@ined.fr</t>
+  </si>
+  <si>
+    <t>Chère Martine,</t>
+  </si>
+  <si>
+    <t>vanessa.nouet@ined.fr</t>
+  </si>
+  <si>
+    <t>Chère Vanessa,</t>
+  </si>
+  <si>
+    <t>Lextenso * 3</t>
+  </si>
+  <si>
+    <t>france.groubetitch@beauxartsparis.fr</t>
+  </si>
+  <si>
+    <t>Chère France</t>
+  </si>
+  <si>
+    <t>martin@le-tripode.net</t>
+  </si>
+  <si>
+    <t>Cher Frédéric,</t>
+  </si>
+  <si>
+    <t>mayavandevelde@hotmail.com</t>
+  </si>
+  <si>
+    <t>Chère Maya,</t>
+  </si>
+  <si>
+    <t>05/01/2021  (round 2, actually sent on 06/01 morning)</t>
+  </si>
+  <si>
+    <t>finitude</t>
   </si>
 </sst>
 </file>
@@ -241,12 +538,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -262,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -290,6 +593,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -572,10 +917,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B53" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B71" activeCellId="1" sqref="B69 B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,12 +933,15 @@
     <col min="3" max="3" width="37.42578125" style="7" customWidth="1"/>
     <col min="4" max="4" width="14" style="3" customWidth="1"/>
     <col min="5" max="8" width="14.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="9" max="10" width="9.140625" style="3"/>
+    <col min="11" max="11" width="12.5703125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="19"/>
+    <col min="13" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>16</v>
@@ -605,30 +956,33 @@
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>1</v>
@@ -640,10 +994,10 @@
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>18</v>
@@ -663,16 +1017,19 @@
         <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -686,10 +1043,10 @@
         <v>3</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>18</v>
@@ -709,10 +1066,10 @@
         <v>3</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>18</v>
@@ -732,10 +1089,10 @@
         <v>4</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>18</v>
@@ -755,171 +1112,1294 @@
         <v>4</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="G8" s="4" t="s">
+    <row r="8" spans="1:12" s="10" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="10" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K25" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B26" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C26" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="K26" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K27" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K28" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
+      <c r="C29" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B30" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="7" t="s">
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B31" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K31" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K32" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K36" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K37" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B39" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K41" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K43" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K45" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="B46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K46" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="L46" s="22"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K47" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K48" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K49" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K50" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K51" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>34</v>
+      <c r="K52" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K54" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K55" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K56" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K57" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K58" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K59" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K60" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K61" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K62" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K63" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K64" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K65" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K66" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B67" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K67" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K68" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K69" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K70" s="23"/>
+    </row>
+    <row r="71" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K71" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K72" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K73" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K74" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K75" s="22" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -930,8 +2410,12 @@
     <hyperlink ref="C4" r:id="rId4" display="shalev.vayness.mobile@outlook.com" xr:uid="{A3AF96F3-05EB-4FDF-8CF3-5FCCD8F43651}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{9B8135AB-DF6F-47FD-BA04-3EBA11272DAE}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{A7B4D229-8366-4B8B-9F53-84BB2508209A}"/>
+    <hyperlink ref="C52" r:id="rId7" xr:uid="{84C2C10B-3461-42D7-BD55-7EE7211B2244}"/>
+    <hyperlink ref="C63" r:id="rId8" xr:uid="{97E0B1E5-2643-4CBC-B96E-248EFDB6F2ED}"/>
+    <hyperlink ref="C66" r:id="rId9" xr:uid="{2C555E06-54F8-43AB-A30C-5CAAEA203EBC}"/>
+    <hyperlink ref="C50" r:id="rId10" xr:uid="{80D59190-9A0D-471F-A05E-8B9DBA467352}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>